--- a/CalcoloOre.xlsx
+++ b/CalcoloOre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Ore</t>
   </si>
   <si>
+    <t xml:space="preserve">Commenti</t>
+  </si>
+  <si>
     <t xml:space="preserve">18/06 – 25/06 </t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t xml:space="preserve">Test di comunicazione, malfunzionamento di GPIO poi risolto</t>
   </si>
   <si>
+    <t xml:space="preserve">Questo errore e’ stato un grande time sink</t>
+  </si>
+  <si>
     <t xml:space="preserve">04/07 – 11/07</t>
   </si>
   <si>
@@ -70,22 +76,43 @@
     <t xml:space="preserve">09/08 – 14/08</t>
   </si>
   <si>
-    <t xml:space="preserve">Studio su zabbix e simulazione, inizialmente possibilita’ di usare zax, passato poi ad oggetti trapper</t>
+    <t xml:space="preserve">Studio su zabbix e simulazione, inizialmente possibilita’ di usare zax</t>
   </si>
   <si>
     <t xml:space="preserve">23/08 – 30/08</t>
   </si>
   <si>
+    <t xml:space="preserve">Studio di come Zax funzionerebbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potevo ottimizzare meglio il tempo, altro grande time sink per una priorita’ sbagliata.</t>
+  </si>
+  <si>
     <t xml:space="preserve">04/09 – 07/09</t>
   </si>
   <si>
+    <t xml:space="preserve">Passaggio ad oggetti trap</t>
+  </si>
+  <si>
     <t xml:space="preserve">10/09 – 19/09</t>
   </si>
   <si>
+    <t xml:space="preserve">Lavoro su script di export + prova a script completo di configurazione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avendo studiato questi meglio il completamento di questa parte e’ stato molto piu’ veloce</t>
+  </si>
+  <si>
     <t xml:space="preserve">19/09 – 26/09</t>
   </si>
   <si>
+    <t xml:space="preserve">Integrazione con file sender</t>
+  </si>
+  <si>
     <t xml:space="preserve">27/09 – 1/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ultimi test</t>
   </si>
   <si>
     <t xml:space="preserve">Ore totali:</t>
@@ -103,6 +130,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -184,16 +212,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="140.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,13 +234,16 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>40</v>
@@ -220,21 +251,24 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>25</v>
@@ -242,21 +276,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>20</v>
@@ -264,10 +298,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>20</v>
@@ -275,62 +309,83 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1</v>
+        <v>70</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C14" s="0" t="n">
         <f aca="false">SUM(C2:C13)</f>
-        <v>171</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/CalcoloOre.xlsx
+++ b/CalcoloOre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Ultimi test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/10 – 5/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piccole aggiunte</t>
   </si>
   <si>
     <t xml:space="preserve">Ore totali:</t>
@@ -212,13 +218,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.28"/>
@@ -282,7 +288,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -351,7 +357,7 @@
         <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>26</v>
@@ -380,12 +386,23 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>31</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
-        <f aca="false">SUM(C2:C13)</f>
-        <v>380</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">SUM(C2:C20)</f>
+        <v>375</v>
       </c>
     </row>
   </sheetData>

--- a/CalcoloOre.xlsx
+++ b/CalcoloOre.xlsx
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Lavoro su script di export + prova a script completo di configurazione</t>
   </si>
   <si>
-    <t xml:space="preserve">Avendo studiato questi meglio il completamento di questa parte e’ stato molto piu’ veloce</t>
+    <t xml:space="preserve">Dopo aver perso molto tempo su uno script completo di configurazione, mi sono velocizzato molto inserendo I parametri tramite gui, lavorando di piu’ sull’export dati.</t>
   </si>
   <si>
     <t xml:space="preserve">19/09 – 26/09</t>
@@ -221,10 +221,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.28"/>

--- a/CalcoloOre.xlsx
+++ b/CalcoloOre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t xml:space="preserve">2/10 – 5/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prove con allarme via mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/10 – 15/10</t>
   </si>
   <si>
     <t xml:space="preserve">Piccole aggiunte</t>
@@ -221,10 +227,10 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.28"/>
@@ -332,7 +338,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>21</v>
@@ -396,9 +402,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">SUM(C2:C20)</f>

--- a/CalcoloOre.xlsx
+++ b/CalcoloOre.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t xml:space="preserve">Data</t>
   </si>
@@ -37,31 +37,25 @@
     <t xml:space="preserve">18/06 – 25/06 </t>
   </si>
   <si>
-    <t xml:space="preserve">Consegna materiale, studio su Python, Raspberry e GPIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/06 – 30/06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test di comunicazione, malfunzionamento di GPIO poi risolto</t>
+    <t xml:space="preserve">Consegna del materiale, studio di Python, e in particolare programmazione della Raspberry Pi e GPIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/06 – 11/07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test di comunicazione tra due Raspberry, grande malfunzionamento di GPIO poi risolto. Inizializzazione di repository e prime prove di file transfer</t>
   </si>
   <si>
     <t xml:space="preserve">Questo errore e’ stato un grande time sink</t>
   </si>
   <si>
-    <t xml:space="preserve">04/07 – 11/07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inizializzazione di repository, prime prove su file transfer</t>
-  </si>
-  <si>
     <t xml:space="preserve">12/07 – 18/07</t>
   </si>
   <si>
-    <t xml:space="preserve">Studio di checksum, stesura di documentazione, file transfer con checksum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/07 – 30/07</t>
+    <t xml:space="preserve">Studio di checksum, stesura di documentazione, file transfer con checksum. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/07 – 30/07</t>
   </si>
   <si>
     <t xml:space="preserve">Ricerche su network monitoring, studio di zabbix, e cacti</t>
@@ -73,58 +67,40 @@
     <t xml:space="preserve">Ulteriore studio su zabbix, prime prove di export di dati</t>
   </si>
   <si>
-    <t xml:space="preserve">09/08 – 14/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studio su zabbix e simulazione, inizialmente possibilita’ di usare zax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/08 – 30/08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studio di come Zax funzionerebbe</t>
+    <t xml:space="preserve">09/08 – 17/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio su zabbix e simulazione, inizialmente possibilita’ di usare zax. Studio di zax</t>
   </si>
   <si>
     <t xml:space="preserve">Potevo ottimizzare meglio il tempo, altro grande time sink per una priorita’ sbagliata.</t>
   </si>
   <si>
-    <t xml:space="preserve">04/09 – 07/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passaggio ad oggetti trap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/09 – 19/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lavoro su script di export + prova a script completo di configurazione</t>
+    <t xml:space="preserve">18/08 – 30/08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulteriore studio di Zabbix Agent Simulator, scoperta di Zabbix Trapper e studio di esso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/09 – 04/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Studio di Zabbix Sender, funzionamento con oggetti Trapper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/09 – 07/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lavoro a script di export dati, trasferimento e import dati. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">08/09 – 16/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script completato e pulito. Configurazione di allarme via mail. Prove a lunga durata del sistema </t>
   </si>
   <si>
     <t xml:space="preserve">Dopo aver perso molto tempo su uno script completo di configurazione, mi sono velocizzato molto inserendo I parametri tramite gui, lavorando di piu’ sull’export dati.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19/09 – 26/09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrazione con file sender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/09 – 1/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ultimi test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2/10 – 5/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prove con allarme via mail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6/10 – 15/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piccole aggiunte</t>
   </si>
   <si>
     <t xml:space="preserve">Ore totali:</t>
@@ -137,7 +113,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -158,6 +134,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,8 +183,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -227,13 +212,13 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="81.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="100.45"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,7 +254,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>8</v>
@@ -290,11 +275,11 @@
       <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -305,7 +290,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -316,32 +301,32 @@
         <v>16</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>20</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,59 +348,15 @@
         <v>25</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C21" s="0" t="n">
         <f aca="false">SUM(C2:C20)</f>
